--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>837746.3708569158</v>
+        <v>857933.9574856174</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613249</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6922704.566391338</v>
+        <v>7422044.897236333</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>130.7910891621167</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>312.5906663620921</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25.13775189891262</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -899,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>8.629543459488294</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>153.488012710443</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>11.12043047005092</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>146.3034971231916</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1142,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>225.2036078396739</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>256.9021676918144</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.9073134702962</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>156.6183086722457</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>234.6853364065439</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>48.500184001908</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>234.2695175914974</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>97.37896090070777</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.9733955350584</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>25.13775189891279</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>200.3509450707813</v>
       </c>
     </row>
     <row r="20">
@@ -2248,10 +2250,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>38.13758443860321</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>181.2635869532363</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>125.4203831793923</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>154.1156291734911</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3667,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>148.6002322641958</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>312.6607303088665</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.0250024240975</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,10 +3912,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>74.0331530374213</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>119.7150118010947</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>334.9190515096431</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.7412390867827</v>
+        <v>1626.130110076637</v>
       </c>
       <c r="C2" t="n">
-        <v>477.7412390867827</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="D2" t="n">
-        <v>54.44861827178296</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="E2" t="n">
-        <v>54.44861827178296</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F2" t="n">
-        <v>54.44861827178296</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L2" t="n">
-        <v>1090.853728201993</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>2213.970710394522</v>
       </c>
       <c r="N2" t="n">
-        <v>1764.655379315307</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>2438.457030428621</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U2" t="n">
-        <v>2243.150433230194</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V2" t="n">
-        <v>2111.038221955328</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W2" t="n">
-        <v>1714.646872255675</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X2" t="n">
-        <v>1302.926873423422</v>
+        <v>2045.978474368167</v>
       </c>
       <c r="Y2" t="n">
-        <v>897.5896033783127</v>
+        <v>2045.978474368167</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M3" t="n">
-        <v>54.44861827178296</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N3" t="n">
-        <v>515.5329466256644</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>1805.62448639911</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.5276838214469</v>
+        <v>1036.674279959972</v>
       </c>
       <c r="C4" t="n">
-        <v>106.5551207003629</v>
+        <v>864.7017168388879</v>
       </c>
       <c r="D4" t="n">
-        <v>54.44861827178296</v>
+        <v>701.3849439656586</v>
       </c>
       <c r="E4" t="n">
-        <v>54.44861827178296</v>
+        <v>535.1767381185122</v>
       </c>
       <c r="F4" t="n">
-        <v>54.44861827178296</v>
+        <v>363.3149638930726</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>197.0579941873047</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T4" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U4" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.452721225452</v>
+        <v>1970.599317363977</v>
       </c>
       <c r="W4" t="n">
-        <v>937.6003173979655</v>
+        <v>1695.74691353649</v>
       </c>
       <c r="X4" t="n">
-        <v>695.0364208437705</v>
+        <v>1453.183016982296</v>
       </c>
       <c r="Y4" t="n">
-        <v>468.6936525335126</v>
+        <v>1226.840248672038</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1227.170371016668</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C5" t="n">
-        <v>800.2696410299679</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D5" t="n">
-        <v>800.2696410299679</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E5" t="n">
-        <v>800.2696410299679</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F5" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G5" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1090.853728201993</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M5" t="n">
-        <v>1764.655379315307</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N5" t="n">
-        <v>1764.655379315307</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>2464.07600418556</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V5" t="n">
-        <v>2464.07600418556</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W5" t="n">
-        <v>2464.07600418556</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="X5" t="n">
-        <v>2052.356005353307</v>
+        <v>3335.482176336947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1647.018735308198</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L6" t="n">
-        <v>54.44861827178296</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M6" t="n">
-        <v>515.5329466256644</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="N6" t="n">
-        <v>1189.334597738979</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>756.4898314602763</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>584.5172683391922</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>421.2004954659629</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>254.9922896188165</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>83.13051539337692</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1944.483684597984</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U7" t="n">
-        <v>1944.483684597984</v>
+        <v>1972.126336256253</v>
       </c>
       <c r="V7" t="n">
-        <v>1944.483684597984</v>
+        <v>1690.414868864282</v>
       </c>
       <c r="W7" t="n">
-        <v>1796.702374372538</v>
+        <v>1415.562465036795</v>
       </c>
       <c r="X7" t="n">
-        <v>1554.138477818344</v>
+        <v>1172.9985684826</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>946.655800172342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1890.862550465365</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.961820478665</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.669199663666</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E8" t="n">
-        <v>614.6922598115233</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F8" t="n">
-        <v>614.6922598115233</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>583.4696253673028</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>583.4696253673028</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="M8" t="n">
-        <v>1257.271276480617</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="N8" t="n">
-        <v>1931.072927593931</v>
+        <v>2741.101998695029</v>
       </c>
       <c r="O8" t="n">
-        <v>1931.072927593931</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.710914756895</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y8" t="n">
-        <v>2310.710914756895</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K9" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L9" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M9" t="n">
-        <v>1398.990771989513</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.990771989513</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O9" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P9" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>894.0649040444501</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="C10" t="n">
-        <v>722.0923409233661</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7755680501368</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>392.5673622029904</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7055879775508</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2076.661333894764</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T10" t="n">
-        <v>1833.321986120664</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U10" t="n">
-        <v>1553.137537620968</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V10" t="n">
-        <v>1553.137537620968</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W10" t="n">
-        <v>1553.137537620968</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X10" t="n">
-        <v>1310.573641066774</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="Y10" t="n">
-        <v>1084.230872756516</v>
+        <v>955.0494564690027</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2160.082153146776</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.181423160076</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.888802345077</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E11" t="n">
-        <v>883.9118624929341</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N11" t="n">
-        <v>2048.629262475834</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>2160.082153146776</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>2160.082153146776</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>2160.082153146776</v>
+        <v>2604.760592931045</v>
       </c>
       <c r="X11" t="n">
-        <v>2160.082153146776</v>
+        <v>2193.040594098792</v>
       </c>
       <c r="Y11" t="n">
-        <v>2160.082153146776</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M12" t="n">
-        <v>916.6310341197136</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N12" t="n">
-        <v>916.6310341197136</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O12" t="n">
-        <v>916.6310341197136</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P12" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>398.2829556183066</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C13" t="n">
-        <v>226.3103924972226</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D13" t="n">
-        <v>226.3103924972226</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E13" t="n">
-        <v>226.3103924972226</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F13" t="n">
-        <v>54.44861827178296</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.443256688079</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1894.103908913979</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1613.919460414283</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>1332.207993022312</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>1057.355589194825</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>814.7916926406301</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.4489243303722</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2302.582549297618</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C14" t="n">
-        <v>2065.94667294257</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="D14" t="n">
-        <v>1642.654052127571</v>
+        <v>170.2603441112121</v>
       </c>
       <c r="E14" t="n">
-        <v>1216.677112275428</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F14" t="n">
-        <v>791.5529304648283</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>54.44861827178296</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2502693850971</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="N14" t="n">
-        <v>1402.051920498411</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O14" t="n">
-        <v>1474.987448089748</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P14" t="n">
-        <v>2148.789099203062</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X14" t="n">
-        <v>2722.430913589148</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y14" t="n">
-        <v>2722.430913589148</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>644.9335448401225</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>1318.735195953437</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>1318.735195953437</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.735195953437</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="O15" t="n">
-        <v>1318.735195953437</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>298.0134550233526</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C16" t="n">
-        <v>298.0134550233526</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="D16" t="n">
-        <v>298.0134550233526</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0134550233526</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="F16" t="n">
-        <v>298.0134550233526</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,25 +5518,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O18" t="n">
         <v>1194.79262694784</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1067.07923602298</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C19" t="n">
-        <v>895.1066729018962</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>731.7899000286669</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>565.5816941815204</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>393.7199199560808</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>227.462950250313</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5704,19 +5706,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>2001.004273426986</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.151869599499</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="X19" t="n">
-        <v>1483.587973045304</v>
+        <v>1478.255928373095</v>
       </c>
       <c r="Y19" t="n">
-        <v>1257.245204735046</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3618.53926577585</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C22" t="n">
-        <v>3446.566702654766</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>3283.249929781537</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>3117.04172393439</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>3117.04172393439</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>4591.611874017632</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>4309.90040662566</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W22" t="n">
-        <v>4035.048002798173</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X22" t="n">
-        <v>4035.048002798173</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y22" t="n">
-        <v>3808.705234487915</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6235,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4798.855966881186</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8002552472883</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6412,22 +6414,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2099.621208542961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1819.436760043265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.725292651294</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.872888823807</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.308992269612</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.966223959354</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6479,7 +6481,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6646,22 +6648,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.529878172021</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1587.529878172021</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
         <v>1375.649804642131</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,37 +6688,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>1068.606254915256</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>896.6336917941717</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>733.3169189209424</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>567.1087130737959</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>395.2469388483563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>228.9899691425884</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4871.796322517327</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4590.084855125356</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>4590.084855125356</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7174,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.2223918853055</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>537.2498287642214</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>373.9330558909921</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>373.9330558909921</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1550.684777446425</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.832373618938</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1125.731128907629</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>899.388360597371</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>779.217726784448</v>
+        <v>1124.820989039771</v>
       </c>
       <c r="C41" t="n">
-        <v>352.3169967977481</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="D41" t="n">
-        <v>352.3169967977481</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="E41" t="n">
-        <v>352.3169967977481</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F41" t="n">
-        <v>352.3169967977481</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>801.1857969764337</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L41" t="n">
-        <v>801.1857969764337</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M41" t="n">
-        <v>801.1857969764337</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N41" t="n">
-        <v>801.1857969764337</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X41" t="n">
-        <v>973.1823756976778</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y41" t="n">
-        <v>779.217726784448</v>
+        <v>1544.669353331301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>134.7041943078597</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>725.1891208761992</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>725.1891208761992</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M42" t="n">
-        <v>725.1891208761992</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="N42" t="n">
-        <v>725.1891208761992</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="O42" t="n">
-        <v>725.1891208761992</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1398.990771989513</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>664.2597297251771</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C43" t="n">
-        <v>492.287166604093</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D43" t="n">
-        <v>492.287166604093</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E43" t="n">
-        <v>326.0789607569466</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F43" t="n">
-        <v>154.217186531507</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G43" t="n">
-        <v>154.217186531507</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.080683020849</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U43" t="n">
-        <v>1879.896234521154</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V43" t="n">
-        <v>1598.184767129183</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W43" t="n">
-        <v>1323.332363301696</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X43" t="n">
-        <v>1080.768466747501</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y43" t="n">
-        <v>854.4256984372428</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1151.492880138382</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C44" t="n">
-        <v>1151.492880138382</v>
+        <v>899.5294405683716</v>
       </c>
       <c r="D44" t="n">
-        <v>1151.492880138382</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="E44" t="n">
-        <v>725.5159402862397</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="F44" t="n">
-        <v>725.5159402862397</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K44" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L44" t="n">
-        <v>583.4696253673028</v>
+        <v>261.9944435974759</v>
       </c>
       <c r="M44" t="n">
-        <v>1257.271276480617</v>
+        <v>1151.729190714879</v>
       </c>
       <c r="N44" t="n">
-        <v>1931.072927593931</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.941498715398</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W44" t="n">
-        <v>1968.550149015745</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X44" t="n">
-        <v>1556.830150183492</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y44" t="n">
-        <v>1151.492880138382</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>433.5136365409612</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>433.5136365409612</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.315287654275</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="N45" t="n">
-        <v>1781.11693876759</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="O45" t="n">
-        <v>1781.11693876759</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P45" t="n">
-        <v>1781.11693876759</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>578.4639729311006</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>205.6738954250035</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>97.48892355252579</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>293.7578715550603</v>
       </c>
       <c r="O5" t="n">
-        <v>324.2332655787787</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>488.8385263243295</v>
+        <v>761.8103878010206</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>570.1292544266475</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>781.0571548753067</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>510.3288389666712</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>690.5396891392526</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>541.5759579399291</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>725.6009900365383</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9006,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>227.9750881309181</v>
       </c>
       <c r="P15" t="n">
-        <v>571.6708946380166</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,7 +9166,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>60.04398625350153</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>745.2028786174529</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>848.7638096822445</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>382.6486756511529</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9729,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>507.6330667855089</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,7 +10199,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>423.7784592672894</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>223.026847924627</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>101.6773527536128</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>106.1558042476775</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>206.410576047395</v>
+        <v>230.3288972353052</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>130.8512833177648</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>574.3586489309258</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22604,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.1234315628963</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>95.01213248183814</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.2433965330055</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22847,7 +22849,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>254.1147861334872</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>153.4739695386593</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>125.8003826660205</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>175.092063946772</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23081,13 +23083,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>135.5252685108421</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27.77629167420079</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.81538833381074</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23312,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>21.08602390300797</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>343.9272522007486</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>188.3622050953354</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>324.3382095529132</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.29091348988661</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23662,10 +23664,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.2205539080144</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>23.72839555637404</v>
       </c>
     </row>
     <row r="20">
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>126.456815570107</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>59.64236734312274</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>16.93792262753485</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>86.02262841516185</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>91.5380253244571</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>109.9709923779664</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25640,13 +25642,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>209.2588949205611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>166.8728012589377</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>302.9167108857381</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>65.37662027680273</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481332.7731432095</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481332.7731432094</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481332.7731432095</v>
+        <v>567308.1711564</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481332.7731432096</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481332.7731432095</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717119.4706393412</v>
+        <v>717119.470639341</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717119.4706393412</v>
+        <v>717119.470639341</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717119.470639341</v>
+        <v>717119.4706393412</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481332.7731432096</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481332.7731432095</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="C2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="D2" t="n">
-        <v>198054.5655916928</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="E2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="F2" t="n">
-        <v>198054.5655916928</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="G2" t="n">
         <v>295065.9616471597</v>
@@ -26332,13 +26334,13 @@
         <v>295065.9616471597</v>
       </c>
       <c r="I2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="J2" t="n">
         <v>295065.9616471597</v>
       </c>
-      <c r="J2" t="n">
-        <v>295065.9616471598</v>
-      </c>
       <c r="K2" t="n">
-        <v>295065.9616471595</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="L2" t="n">
         <v>295065.9616471597</v>
@@ -26347,13 +26349,13 @@
         <v>295065.9616471597</v>
       </c>
       <c r="N2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="O2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
       <c r="P2" t="n">
-        <v>198054.5655916927</v>
+        <v>233428.0343931753</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="C4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="D4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26439,7 +26441,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26451,13 +26453,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555788</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124763.9985467479</v>
+        <v>-179287.3966179013</v>
       </c>
       <c r="C6" t="n">
-        <v>103323.3052169361</v>
+        <v>121895.005057074</v>
       </c>
       <c r="D6" t="n">
-        <v>103323.3052169361</v>
+        <v>121895.0050570739</v>
       </c>
       <c r="E6" t="n">
-        <v>136950.9052169361</v>
+        <v>155522.6050570739</v>
       </c>
       <c r="F6" t="n">
-        <v>136950.9052169361</v>
+        <v>155522.605057074</v>
       </c>
       <c r="G6" t="n">
-        <v>23932.49159263248</v>
+        <v>83714.33262119874</v>
       </c>
       <c r="H6" t="n">
         <v>187883.6124028185</v>
       </c>
       <c r="I6" t="n">
+        <v>187883.6124028186</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-47261.59787474287</v>
+      </c>
+      <c r="K6" t="n">
         <v>187883.6124028185</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9806.683914038789</v>
-      </c>
-      <c r="K6" t="n">
-        <v>187883.6124028183</v>
       </c>
       <c r="L6" t="n">
         <v>187883.6124028185</v>
@@ -26555,13 +26557,13 @@
         <v>187883.6124028185</v>
       </c>
       <c r="N6" t="n">
-        <v>187883.6124028185</v>
+        <v>187883.6124028186</v>
       </c>
       <c r="O6" t="n">
-        <v>136950.9052169361</v>
+        <v>155522.6050570739</v>
       </c>
       <c r="P6" t="n">
-        <v>136950.9052169361</v>
+        <v>155522.6050570739</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>541.1843500966545</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>168.0985336147722</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>256.4782487206143</v>
       </c>
       <c r="O5" t="n">
-        <v>286.8423062227546</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7417458120015</v>
+        <v>738.7136072886926</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>534.3646536318382</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>743.6661955192825</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>487.2320584543432</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>504.0005961296978</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>687.2889476039154</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>204.8031984086958</v>
       </c>
       <c r="P15" t="n">
-        <v>549.900053433188</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>36.8720965312793</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>723.4320374126243</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>811.4841868477985</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>360.2494418178196</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>428.7489458104537</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>388.0138584724801</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.0662384202795</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>168.0985336147721</v>
+        <v>192.0168548026822</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>108.4520494844315</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>857933.9574856174</v>
+        <v>856016.2398270553</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>312.5906663620921</v>
+        <v>277.0545382599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.13775189891262</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>189.9805983049641</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -907,7 +907,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>153.488012710443</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>11.12043047005092</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1147,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>256.9021676918144</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>133.9073134702962</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>112.3173509478303</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1432,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>48.500184001908</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>97.37896090070777</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>121.8558843410516</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348037</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.3509450707813</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.4203831793923</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,25 +3742,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>312.6607303088665</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,16 +3979,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>119.7150118010947</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.130110076637</v>
+        <v>1256.687918922614</v>
       </c>
       <c r="C2" t="n">
-        <v>1199.229380089937</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="D2" t="n">
-        <v>1199.229380089937</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.229380089937</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F2" t="n">
-        <v>774.1051982793369</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G2" t="n">
-        <v>369.7661358687856</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>434.501216159716</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>1324.235963277119</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="M2" t="n">
-        <v>2213.970710394522</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="N2" t="n">
-        <v>2749.743216990209</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O2" t="n">
-        <v>3594.887867141022</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
         <v>3594.887867141022</v>
@@ -4372,10 +4372,10 @@
         <v>2361.726622208664</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.978474368167</v>
+        <v>2081.873553259254</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.978474368167</v>
+        <v>1676.536283214144</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>79.34440030473228</v>
       </c>
       <c r="K3" t="n">
-        <v>79.34440030473228</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="L3" t="n">
-        <v>916.1432083876384</v>
+        <v>1506.628134955978</v>
       </c>
       <c r="M3" t="n">
-        <v>916.1432083876384</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N3" t="n">
-        <v>916.1432083876384</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O3" t="n">
-        <v>1805.62448639911</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
         <v>1880.58538792333</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1036.674279959972</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C4" t="n">
-        <v>864.7017168388879</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D4" t="n">
-        <v>701.3849439656586</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E4" t="n">
-        <v>535.1767381185122</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F4" t="n">
-        <v>363.3149638930726</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G4" t="n">
-        <v>197.0579941873047</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
         <v>71.89775734282044</v>
@@ -4515,25 +4515,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T4" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U4" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V4" t="n">
-        <v>1970.599317363977</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W4" t="n">
-        <v>1695.74691353649</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X4" t="n">
-        <v>1453.183016982296</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1226.840248672038</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2510.296542000307</v>
+        <v>2085.172360189708</v>
       </c>
       <c r="C5" t="n">
-        <v>2083.395812013608</v>
+        <v>1658.271630203008</v>
       </c>
       <c r="D5" t="n">
-        <v>1660.103191198608</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="E5" t="n">
-        <v>1234.126251346466</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F5" t="n">
         <v>809.0020695358658</v>
@@ -4567,28 +4567,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>434.501216159716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>1150.009524135215</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L5" t="n">
-        <v>2039.744271252618</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="M5" t="n">
-        <v>2039.744271252618</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N5" t="n">
-        <v>2293.657737486026</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O5" t="n">
-        <v>3138.802387636838</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P5" t="n">
-        <v>3138.802387636838</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
         <v>3594.887867141022</v>
@@ -4606,13 +4606,13 @@
         <v>3490.520573014162</v>
       </c>
       <c r="W5" t="n">
-        <v>3490.520573014162</v>
+        <v>3094.129223314509</v>
       </c>
       <c r="X5" t="n">
-        <v>3335.482176336947</v>
+        <v>2682.409224482256</v>
       </c>
       <c r="Y5" t="n">
-        <v>2930.144906291837</v>
+        <v>2277.071954437146</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>79.34440030473228</v>
       </c>
       <c r="J6" t="n">
-        <v>351.0418895843234</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K6" t="n">
-        <v>351.0418895843234</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L6" t="n">
-        <v>351.0418895843234</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M6" t="n">
-        <v>1082.368360800129</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N6" t="n">
-        <v>1082.368360800129</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="O6" t="n">
-        <v>1082.368360800129</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P6" t="n">
-        <v>1798.566077838627</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q6" t="n">
         <v>1798.566077838627</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>756.4898314602763</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C7" t="n">
-        <v>584.5172683391922</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D7" t="n">
-        <v>421.2004954659629</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E7" t="n">
-        <v>254.9922896188165</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F7" t="n">
-        <v>83.13051539337692</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
         <v>71.89775734282044</v>
@@ -4752,25 +4752,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T7" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U7" t="n">
-        <v>1972.126336256253</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V7" t="n">
-        <v>1690.414868864282</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W7" t="n">
-        <v>1415.562465036795</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X7" t="n">
-        <v>1172.9985684826</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y7" t="n">
-        <v>946.655800172342</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.192229807262</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.291499820562</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D8" t="n">
-        <v>922.9988790055627</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E8" t="n">
-        <v>497.0219391534202</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F8" t="n">
-        <v>71.89775734282044</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G8" t="n">
         <v>71.89775734282044</v>
@@ -4816,13 +4816,13 @@
         <v>1851.367251577626</v>
       </c>
       <c r="N8" t="n">
-        <v>2741.101998695029</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O8" t="n">
-        <v>3477.331532259119</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3477.331532259119</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
         <v>3477.331532259119</v>
@@ -4831,25 +4831,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W8" t="n">
-        <v>3010.097862976154</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X8" t="n">
-        <v>2598.377864143902</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y8" t="n">
-        <v>2193.040594098792</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>961.6325044602233</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.367251577626</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.0494564690027</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C10" t="n">
-        <v>955.0494564690027</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D10" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E10" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F10" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4986,28 +4986,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V10" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W10" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X10" t="n">
-        <v>955.0494564690027</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.0494564690027</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1773.192229807262</v>
+        <v>1345.746559995139</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.291499820562</v>
+        <v>1345.746559995139</v>
       </c>
       <c r="D11" t="n">
-        <v>922.9988790055627</v>
+        <v>922.4539391801388</v>
       </c>
       <c r="E11" t="n">
-        <v>497.0219391534202</v>
+        <v>922.4539391801388</v>
       </c>
       <c r="F11" t="n">
-        <v>71.89775734282044</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1677.140812435722</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M11" t="n">
-        <v>1677.140812435722</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N11" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="O11" t="n">
-        <v>2522.285462586535</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3021.246052754936</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.240092655207</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V11" t="n">
-        <v>2653.750677781457</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W11" t="n">
-        <v>2604.760592931045</v>
+        <v>2582.652193164031</v>
       </c>
       <c r="X11" t="n">
-        <v>2193.040594098792</v>
+        <v>2170.932194331778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2193.040594098792</v>
+        <v>1765.594924286669</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282044</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L12" t="n">
-        <v>71.89775734282044</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="M12" t="n">
-        <v>71.89775734282044</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N12" t="n">
-        <v>274.9063928733606</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
         <v>1880.58538792333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.1427916045499</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>486.1427916045499</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
         <v>71.89775734282044</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1020.453694912912</v>
+        <v>1377.943109786662</v>
       </c>
       <c r="C14" t="n">
-        <v>593.5529649262119</v>
+        <v>951.0423797999622</v>
       </c>
       <c r="D14" t="n">
-        <v>170.2603441112121</v>
+        <v>527.7497589849625</v>
       </c>
       <c r="E14" t="n">
-        <v>71.89775734282044</v>
+        <v>527.7497589849625</v>
       </c>
       <c r="F14" t="n">
-        <v>71.89775734282044</v>
+        <v>527.7497589849625</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
         <v>71.89775734282044</v>
@@ -5284,22 +5284,22 @@
         <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1467.822123446196</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M14" t="n">
-        <v>1467.822123446196</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N14" t="n">
-        <v>1467.822123446196</v>
+        <v>3456.610306670528</v>
       </c>
       <c r="O14" t="n">
-        <v>2312.966773597008</v>
+        <v>3456.610306670528</v>
       </c>
       <c r="P14" t="n">
-        <v>3021.246052754936</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
         <v>3594.887867141022</v>
@@ -5314,16 +5314,16 @@
         <v>3011.240092655207</v>
       </c>
       <c r="V14" t="n">
-        <v>2653.750677781457</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.359328081804</v>
+        <v>2614.848742955554</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.639329249551</v>
+        <v>2203.128744123302</v>
       </c>
       <c r="Y14" t="n">
-        <v>1440.302059204442</v>
+        <v>1797.791474078192</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282044</v>
+        <v>1770.878981273657</v>
       </c>
       <c r="M15" t="n">
-        <v>961.6325044602233</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N15" t="n">
-        <v>961.6325044602233</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>1164.387670884832</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>486.1427916045499</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C16" t="n">
-        <v>486.1427916045499</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D16" t="n">
-        <v>486.1427916045499</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E16" t="n">
-        <v>486.1427916045499</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5460,28 +5460,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.137123962257</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T16" t="n">
-        <v>1791.797776188157</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.613327688461</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.90186029649</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W16" t="n">
-        <v>955.0494564690027</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X16" t="n">
-        <v>712.4855599148078</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.1427916045499</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
         <v>2988.069926596602</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O18" t="n">
         <v>1194.79262694784</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.81982492729</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1478.255928373095</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5782,22 +5782,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,13 +6314,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6551,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6788,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1068.606254915256</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>896.6336917941717</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>733.3169189209424</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>567.1087130737959</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>395.2469388483563</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>228.9899691425884</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1727.678888491774</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1485.114991937579</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1258.772223627321</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7025,13 +7025,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1124.820989039771</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0020695358658</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>809.0020695358658</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>809.0020695358658</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
         <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>970.2737227554036</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.008469872806</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N41" t="n">
         <v>2749.743216990209</v>
@@ -7441,22 +7441,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3115.607386782067</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2758.117971908317</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2361.726622208664</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>1950.006623376411</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>1544.669353331301</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>908.6965654257266</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>908.6965654257266</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.431312543129</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O42" t="n">
         <v>1880.58538792333</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
         <v>71.89775734282044</v>
@@ -7596,25 +7596,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1020.453694912912</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>899.5294405683716</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>476.2368197533718</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>476.2368197533718</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
         <v>476.2368197533718</v>
@@ -7648,22 +7648,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>71.89775734282044</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>261.9944435974759</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="M44" t="n">
-        <v>1151.729190714879</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N44" t="n">
-        <v>2041.463937832282</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O44" t="n">
-        <v>2886.608587983094</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P44" t="n">
         <v>3594.887867141022</v>
@@ -7675,25 +7675,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.750677781457</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2257.359328081804</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.639329249551</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>1440.302059204442</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>618.2228839373497</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M45" t="n">
-        <v>618.2228839373497</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N45" t="n">
-        <v>618.2228839373497</v>
+        <v>991.1041099118586</v>
       </c>
       <c r="O45" t="n">
-        <v>618.2228839373497</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1334.420600975848</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
         <v>1880.58538792333</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178783</v>
+        <v>725.6009900365383</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>578.4639729311006</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692493</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>97.48892355252579</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>293.7578715550603</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>496.3510534992669</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>761.8103878010206</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P6" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8464,16 +8464,16 @@
         <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>781.0571548753067</v>
+        <v>503.6531028099451</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8543,16 +8543,16 @@
         <v>921.8187472975834</v>
       </c>
       <c r="N9" t="n">
-        <v>920.064994998797</v>
+        <v>480.7444490219534</v>
       </c>
       <c r="O9" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>432.1170575644005</v>
       </c>
       <c r="P11" t="n">
-        <v>541.5759579399291</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,16 +8777,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>676.8901079704248</v>
       </c>
       <c r="N12" t="n">
-        <v>226.402256022168</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8932,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>725.6009900365383</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>177.2496653157802</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975834</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>227.9750881309181</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>276.0147300838795</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9248,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>60.04398625350153</v>
       </c>
       <c r="P18" t="n">
         <v>745.2028786174529</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9731,16 +9731,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>420.03429863453</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1043.074428213578</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10199,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10673,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>223.026847924627</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197015</v>
+        <v>754.4502750946394</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11144,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
         <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>106.1558042476775</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>230.3288972353052</v>
+        <v>755.4826946928163</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>936.0015896197015</v>
@@ -11314,7 +11314,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11381,25 +11381,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>574.3586489309258</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>51.11232664953685</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>95.01213248183814</v>
+        <v>130.5482605840143</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>117.2205539080145</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,13 +22755,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>225.6692823436507</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>254.1147861334872</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>153.4739695386593</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22992,10 +22992,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23083,7 +23083,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>135.5252685108421</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>27.77629167420079</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>308.5555890446634</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>343.9272522007486</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>324.3382095529132</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>278.4397874453942</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568371</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23940,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.72839555637404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>16.93792262753485</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>109.9709923779664</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>302.9167108857381</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>567308.1711564</v>
+        <v>567308.1711564001</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567308.1711564001</v>
+        <v>567308.1711564002</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717119.4706393412</v>
+        <v>717119.470639341</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>233428.0343931754</v>
+      </c>
+      <c r="C2" t="n">
         <v>233428.0343931753</v>
-      </c>
-      <c r="C2" t="n">
-        <v>233428.0343931754</v>
       </c>
       <c r="D2" t="n">
         <v>233428.0343931753</v>
       </c>
       <c r="E2" t="n">
-        <v>233428.0343931753</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="F2" t="n">
-        <v>233428.0343931754</v>
+        <v>233428.0343931752</v>
       </c>
       <c r="G2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="H2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="I2" t="n">
         <v>295065.9616471597</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>295065.9616471596</v>
+      </c>
+      <c r="K2" t="n">
         <v>295065.9616471598</v>
-      </c>
-      <c r="J2" t="n">
-        <v>295065.9616471597</v>
-      </c>
-      <c r="K2" t="n">
-        <v>295065.9616471597</v>
       </c>
       <c r="L2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="M2" t="n">
+        <v>295065.9616471598</v>
+      </c>
+      <c r="N2" t="n">
         <v>295065.9616471597</v>
       </c>
-      <c r="N2" t="n">
-        <v>295065.9616471598</v>
-      </c>
       <c r="O2" t="n">
-        <v>233428.0343931753</v>
+        <v>233428.0343931754</v>
       </c>
       <c r="P2" t="n">
-        <v>233428.0343931753</v>
+        <v>233428.0343931754</v>
       </c>
     </row>
     <row r="3">
@@ -26444,7 +26444,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26459,7 +26459,7 @@
         <v>23263.13375555789</v>
       </c>
       <c r="P4" t="n">
-        <v>23263.13375555788</v>
+        <v>23263.13375555789</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179287.3966179013</v>
+        <v>-179631.9412193901</v>
       </c>
       <c r="C6" t="n">
-        <v>121895.005057074</v>
+        <v>121550.460455585</v>
       </c>
       <c r="D6" t="n">
-        <v>121895.0050570739</v>
+        <v>121550.460455585</v>
       </c>
       <c r="E6" t="n">
-        <v>155522.6050570739</v>
+        <v>155178.060455585</v>
       </c>
       <c r="F6" t="n">
-        <v>155522.605057074</v>
+        <v>155178.0604555849</v>
       </c>
       <c r="G6" t="n">
-        <v>83714.33262119874</v>
+        <v>83663.30195901445</v>
       </c>
       <c r="H6" t="n">
-        <v>187883.6124028185</v>
+        <v>187832.5817406343</v>
       </c>
       <c r="I6" t="n">
-        <v>187883.6124028186</v>
+        <v>187832.5817406342</v>
       </c>
       <c r="J6" t="n">
-        <v>-47261.59787474287</v>
+        <v>-47312.62853692722</v>
       </c>
       <c r="K6" t="n">
-        <v>187883.6124028185</v>
+        <v>187832.5817406343</v>
       </c>
       <c r="L6" t="n">
-        <v>187883.6124028185</v>
+        <v>187832.5817406342</v>
       </c>
       <c r="M6" t="n">
-        <v>187883.6124028185</v>
+        <v>187832.5817406343</v>
       </c>
       <c r="N6" t="n">
-        <v>187883.6124028186</v>
+        <v>187832.5817406342</v>
       </c>
       <c r="O6" t="n">
-        <v>155522.6050570739</v>
+        <v>155178.060455585</v>
       </c>
       <c r="P6" t="n">
-        <v>155522.6050570739</v>
+        <v>155178.060455585</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852554</v>
+        <v>687.2889476039154</v>
       </c>
       <c r="M2" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>541.1843500966545</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>377.7345989569213</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>75.71808234769713</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>898.7219667852554</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>256.4782487206143</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>458.9600941432428</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>738.7136072886926</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P6" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35184,16 +35184,16 @@
         <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>743.6661955192825</v>
+        <v>466.262143453921</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35263,16 +35263,16 @@
         <v>898.7219667852554</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852554</v>
+        <v>459.4014208084117</v>
       </c>
       <c r="O9" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>898.7219667852554</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="P11" t="n">
-        <v>504.0005961296978</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>653.7933274580968</v>
       </c>
       <c r="N12" t="n">
-        <v>205.0592278086264</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>687.2889476039154</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>139.6743035055489</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852554</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>204.8031984086958</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>238.7351072494335</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="P18" t="n">
         <v>723.4320374126243</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>396.8624089123078</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.643165314146</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>184.7148054920041</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852554</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>82.98391452545532</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>192.0168548026822</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>898.7219667852554</v>
@@ -38034,7 +38034,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>29.76929843599519</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
